--- a/literature_research/FS_scopus/FS_shortfood.xlsx
+++ b/literature_research/FS_scopus/FS_shortfood.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,15 +548,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>‘Our struggle is for humanity’: a conversation with Morgan Ody, general coordinator of La Via Campesina International, on land, politics, peasant life and a vision for hope in our changing world</t>
+          <t>Autonomy and repeasantization: Conceptual, analytical, and methodological problems</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A new generation of activists and peasant leaders have taken up the banner of food sovereignty amid an even more challenging and violent situation for rural people around the world. In this interview Morgan Ody, the new General Coordinator of La Via Campesina International, discusses her vision for rural movements. Originally from a small dairy farm, Ody is a second-generation militant in Confédéracion Paysanne. Ody speaks about land reform, climate politics, the perils and potential of state policies, rising populism, and the power of the peasantry: in short, about where the movement has been and where we are headed. © 2023 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>“Autonomy,” as a desirable state, is a notion often used by food sovereignty-oriented farmer movements and scholars studying repeasantization. The term is predominantly used rather casually, relying on presumed meanings, but van der Ploeg's book The New Peasantries seeks to elaborate a particular meaning of autonomy as a characteristic feature of the peasantry. The desire of farmers/peasants for autonomy is formulated in tandem with agroecological agriculture, farmers' agency, locally “nested” markets, co-production with nature, non-commoditized production, and multiple kinds of peasant resistance. This article identifies the distinctive nature of this take on autonomy and analyses its analytical, normative, and political aspects. It develops several critiques regarding the analytical shortcomings of the notion of peasant autonomy: the methodological problem of a peasant bias; the analytical limitations and incompatibility of intrinsic and “relative” autonomy; and the neglect of accumulation from below and subtle class contradictions. Rather than centring autonomy or relative autonomy, the authors argue for shifting the focus to the nature of different types of dependency relationships, ranging from very exploitative to those vital for human flourishing. © 2021 The Authors. Journal of Agrarian Change published by John Wiley &amp; Sons Ltd.</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -584,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Autonomy and repeasantization: Conceptual, analytical, and methodological problems</t>
+          <t>VILLAGE PROJECTS OBSERVED IN ERITREA: POST-CONFLICT PATHWAYS TOWARDS DEMOCRATIC RURAL DEVELOPMENT</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -592,7 +592,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>“Autonomy,” as a desirable state, is a notion often used by food sovereignty-oriented farmer movements and scholars studying repeasantization. The term is predominantly used rather casually, relying on presumed meanings, but van der Ploeg's book The New Peasantries seeks to elaborate a particular meaning of autonomy as a characteristic feature of the peasantry. The desire of farmers/peasants for autonomy is formulated in tandem with agroecological agriculture, farmers' agency, locally “nested” markets, co-production with nature, non-commoditized production, and multiple kinds of peasant resistance. This article identifies the distinctive nature of this take on autonomy and analyses its analytical, normative, and political aspects. It develops several critiques regarding the analytical shortcomings of the notion of peasant autonomy: the methodological problem of a peasant bias; the analytical limitations and incompatibility of intrinsic and “relative” autonomy; and the neglect of accumulation from below and subtle class contradictions. Rather than centring autonomy or relative autonomy, the authors argue for shifting the focus to the nature of different types of dependency relationships, ranging from very exploitative to those vital for human flourishing. © 2021 The Authors. Journal of Agrarian Change published by John Wiley &amp; Sons Ltd.</t>
+          <t>Eritrea's rural development trajectory has fallen short of fully meeting the basic needs of its peasants and pastoralists, let alone national food security objectives. This article builds on earlier research on rural development projects in a select number of villages. These projects were primarily characterised by a state-centric technocratic logic that did, to some degree, embed “hard” infrastructure in the villages, but which paid less attention to building village-level capacity or organisational autonomy. Looking beyond these impasses, the present article suggests an inward-oriented national development model centred on the home market, rural co-operatives, and food sovereignty. As yet - at the time of writing - another major war afflicts Eritrea and Ethiopia, the presence of the political will for such a transition is by no means guaranteed. © 2022 University of Hradec Kralove, Philosophical Faculty. All rights reserved.</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -620,15 +620,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>VILLAGE PROJECTS OBSERVED IN ERITREA: POST-CONFLICT PATHWAYS TOWARDS DEMOCRATIC RURAL DEVELOPMENT</t>
+          <t>Practices of Food Sovereignty in Italy and England: Short Food Supply Chains and the Promise of De-Commodification</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Eritrea's rural development trajectory has fallen short of fully meeting the basic needs of its peasants and pastoralists, let alone national food security objectives. This article builds on earlier research on rural development projects in a select number of villages. These projects were primarily characterised by a state-centric technocratic logic that did, to some degree, embed “hard” infrastructure in the villages, but which paid less attention to building village-level capacity or organisational autonomy. Looking beyond these impasses, the present article suggests an inward-oriented national development model centred on the home market, rural co-operatives, and food sovereignty. As yet - at the time of writing - another major war afflicts Eritrea and Ethiopia, the presence of the political will for such a transition is by no means guaranteed. © 2022 University of Hradec Kralove, Philosophical Faculty. All rights reserved.</t>
+          <t>Alternative food networks are organisations of consumers and food producers that oversee and promote the functioning of short food supply chains, with the aim of fostering a direct and local exchange between producers and consumers. New short-chain economic infrastructures provide food producers – especially small-scale farmers – with a whole new set of commercial opportunities, directed towards the construction of an alternative food economy. But how does value circulate within these innovative economic platforms? And what values are debated, negotiated and exchanged through these circuits? Employing the analytical lenses of de-commodification and embeddedness, this article discusses the modalities and outcomes of the processes of value-creation and value-appropriation that spring out of the direct exchange occurring between consumers and food producers in the alternative food economy. Based on empirical data collected through extensive qualitative field research in Italy and England, the article exposes the dynamics and limits of the on-going processes of de-commodification, proposing an analysis centred on the concept of ‘partial’ de-commodification. This conceptual tool is used to assess the differences that emerged between the Italian and English fields, and to provide conclusive remarks about the potential of place- and culture-specific configurations of practices to advance a transformation of the food system. © 2019 The Authors. Sociologia Ruralis © 2019 European Society for Rural Sociology.</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -656,15 +656,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GLOBAL FOOD SECURITY AND SOVEREIGNTY IMPACTED BY SARS-CoV-2 PANDEMIC</t>
+          <t>National general truck drivers' strike and food security in a Brazilian metropolis</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>The current health crisis due to the severe acute respiratory syndrome -coronavirus-2 (SARS-CoV-2) is challenging several of the assumptions of a globalized world. There are severe consequences over food security and sovereignty, especially among the poorest and most vulnerable populations. Particularly, since any infectious disease outbreak is directly correlated to an increase in hunger and malnutrition. This assay is set to analyze the impacts of the sanitary crisis on food security and sovereignty in the international context, and highlight how governments are acting to reduce consequences, through the use of an exploratory and analytical methodology. Although the United States (U.S.) has successfully overcome this health crisis, the food crisis has overtaken, as a result of the growing unemployment. In Latin America, the pandemic is exacerbating food access and economic situation. The sanitary crisis has aggravated food shortages in Africa already going on, especially in rural areas. Asia suffered the most significant impact in food security. The new food security policy in the European Union aims to hold food security. Food insecurity and malnutrition are not just about agriculture production; they are also about food access limitations. In consequence, this health crisis cannot be allowed to become also a food crisis. © 2022. All Rights Reserved.</t>
+          <t>Objective: We analysed the impact of the national general truck drivers' strike on the availability, variety and price of foods sold by a food supply centre.Design: Descriptive study using secondary data to examine the percentage change in the mean price of fruits, vegetables and eggs before, during and after the strike. The strike in Brazil lasted 10 d from 21 to 30 May 2018. The drivers were on strike in order to make diesel oil tax-free and to obtain better working conditions.Setting: The food supply centre, named CEASA-Minas Grande BH, was located in the metropolitan area of a Brazilian city.Participants: We examined twenty types of foods.Results: After 10 d, there was a ~30 % reduction in the availability of all types of foods and prices increased. Foods with the highest price increases included cabbage (233·3 %), potatoes (220·0 %), papaya (160·0 %) and oranges (78·6 %). At the end of the strike, we observed reductions in the price of eggs, fruits, vegetables, roots and tubers; however, some foods remained more expensive than before the strike, including chayote (203·2 % higher), cucumber (66·7 % higher) and potatoes (60·0 % higher).Conclusions: The general truck drivers' strike was correlated with a reduction in the availability of food and, consequently, increases in price and possibly restrictions on access. The strike demonstrated the dependence of metropolises on road transportation and the conventional market. We speculate that initiatives aiming to shorten the food supply chain and promote food sovereignty and resilience of the supply circuits could be important. © The Authors 2019.</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -692,15 +692,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Potential for food self-sufficiency improvements through indoor and vertical farming in the gulf cooperation council: Challenges and opportunities from the case of Kuwait</t>
+          <t>The territorial policy of rural development in brazil: Questions and reflections about the reconnection between production and consumption of food; [A política territorial do desenvolvimento rural no Brasil: Perguntas e reflexões sobre a reconexão entre produção e consumo de alimentos]; [La política territorial del desarrollo rural en Brasil: Preguntas y reflexiones sobre la reconexión entre producción y consumo de alimentos]</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>The countries of the Gulf Cooperation Council (GCC) are considered food secure due to their ability to import sufficient food to meet their populations’ demand, despite considerable environmental limitations to conventional agriculture. However, over-reliance on externally produced food leaves these countries vulnerable to food shortages during crises that disrupt international production and shipping. Advanced Controlled Environment Agriculture technology has the potential to improve food self-sufficiency by multiplying vegetable crop yields while optimizing efficiency of agricultural inputs and minimizing land requirements. This paper demonstrates how approximately 15 km2 of indoor farms or less than 0.1 km2 of vertical farms could reduce or eliminate the need to import six important vegetable crops in the State of Kuwait. If properly contextualized and supported by clear legislation and well-managed regulatory bodies, indoor agriculture initiatives may provide a pathway for GCC countries to reduce their dependence on imported foods and increase resilience to food supply disruption during disasters or conflict. This case study contextualizes the need for improved food self-sufficiency in light of vulnerabilities from regional and global threats, illuminates unique challenges faced by GCC countries considering adoption of the proposed technologies, and summarizes opportunities inherent in the current legal and policy framework. © 2021 by the authors. Licensee MDPI, Basel, Switzerland.</t>
+          <t>Short marketing circuits and territorial rural development policies emphasize the importance of the reconnection between food production and consumption, with repercussions on the food security and sovereignty of local populations. For this, we analyzed official documents of the Program for the Sustainable Development of Rural Territories, the Citizenship Territories Program, the Territorial Development Plans, as well as field research on projects carried out in three rural territories and citizenship in the South of Brazil. From this analysis, it is possible to think of the strengthening of short circuits as the mechanism to promote rural territorial development. © 2019, Pontificia Universidad Javeriana. All rights reserved.</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -728,15 +728,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Practices of Food Sovereignty in Italy and England: Short Food Supply Chains and the Promise of De-Commodification</t>
+          <t>Drafting a Law, Dissolving a Proposal: Food Sovereignty and the State in Ecuador</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Alternative food networks are organisations of consumers and food producers that oversee and promote the functioning of short food supply chains, with the aim of fostering a direct and local exchange between producers and consumers. New short-chain economic infrastructures provide food producers – especially small-scale farmers – with a whole new set of commercial opportunities, directed towards the construction of an alternative food economy. But how does value circulate within these innovative economic platforms? And what values are debated, negotiated and exchanged through these circuits? Employing the analytical lenses of de-commodification and embeddedness, this article discusses the modalities and outcomes of the processes of value-creation and value-appropriation that spring out of the direct exchange occurring between consumers and food producers in the alternative food economy. Based on empirical data collected through extensive qualitative field research in Italy and England, the article exposes the dynamics and limits of the on-going processes of de-commodification, proposing an analysis centred on the concept of ‘partial’ de-commodification. This conceptual tool is used to assess the differences that emerged between the Italian and English fields, and to provide conclusive remarks about the potential of place- and culture-specific configurations of practices to advance a transformation of the food system. © 2019 The Authors. Sociologia Ruralis © 2019 European Society for Rural Sociology.</t>
+          <t>Upon being sworn in as the 56th Ecuadorian President on 15 January 2007, Rafael Correa immediately convened, through a referendum, a National Constituent Assembly to draw up a new constitution. One of the concerns of the assembly was to translate into law a food-sovereignty proposal put forward by social movements. In the process of becoming law, the food-sovereignty proposal was much changed. How is it possible that the final version, the law, so far fell short of the food-sovereignty movement’s original proposal? Addressing this question implies a reflection on the role of the state. We argue that (a) instead of strengthening the role of peasants, their participation was reduced to a bureaucratic structure (a ‘council’) that lacked the capacity to define or implement policies, and (b) the issue of the social function of land and land-reform was removed. I therefore conclude that the social movements’ proposal for food sovereignty was stripped of its essentials. © 2018 SAGE Publications.</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -764,15 +764,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>National general truck drivers' strike and food security in a Brazilian metropolis</t>
+          <t>Greenhouse Agriculture in the Icelandic Food System</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Objective: We analysed the impact of the national general truck drivers' strike on the availability, variety and price of foods sold by a food supply centre.Design: Descriptive study using secondary data to examine the percentage change in the mean price of fruits, vegetables and eggs before, during and after the strike. The strike in Brazil lasted 10 d from 21 to 30 May 2018. The drivers were on strike in order to make diesel oil tax-free and to obtain better working conditions.Setting: The food supply centre, named CEASA-Minas Grande BH, was located in the metropolitan area of a Brazilian city.Participants: We examined twenty types of foods.Results: After 10 d, there was a ~30 % reduction in the availability of all types of foods and prices increased. Foods with the highest price increases included cabbage (233·3 %), potatoes (220·0 %), papaya (160·0 %) and oranges (78·6 %). At the end of the strike, we observed reductions in the price of eggs, fruits, vegetables, roots and tubers; however, some foods remained more expensive than before the strike, including chayote (203·2 % higher), cucumber (66·7 % higher) and potatoes (60·0 % higher).Conclusions: The general truck drivers' strike was correlated with a reduction in the availability of food and, consequently, increases in price and possibly restrictions on access. The strike demonstrated the dependence of metropolises on road transportation and the conventional market. We speculate that initiatives aiming to shorten the food supply chain and promote food sovereignty and resilience of the supply circuits could be important. © The Authors 2019.</t>
+          <t>Greenhouses are a frequent feature on the Icelandic rural landscape and an integral part of Iceland's food system. Iceland's reserves of geothermal energy present an opportunity to extend an otherwise short growing season. This promotes sustainability, increases food security, and benefits consumers. This article examines the relative strengths of Iceland's greenhouse sector - using a combination of statistics, observations, and interviews to understand the resource demands of greenhouse agriculture, how well greenhouses can allay some food insecurity and provide local foods. It ends with an examination of how the reduction of subsidies used to keep greenhouse agriculture going, has had an effect and forces the question of whether losing much of Iceland's agricultural sector and locally sourced food is worth the social and political costs. © 2019 Gina M. Butrico, David H. Kaplan, published by Sciendo 2019.</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -800,15 +800,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>The territorial policy of rural development in brazil: Questions and reflections about the reconnection between production and consumption of food; [A política territorial do desenvolvimento rural no Brasil: Perguntas e reflexões sobre a reconexão entre produção e consumo de alimentos]; [La política territorial del desarrollo rural en Brasil: Preguntas y reflexiones sobre la reconexión entre producción y consumo de alimentos]</t>
+          <t>Analysing agricultural investment from the realities of small-scale food providers: grounding the debates</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Short marketing circuits and territorial rural development policies emphasize the importance of the reconnection between food production and consumption, with repercussions on the food security and sovereignty of local populations. For this, we analyzed official documents of the Program for the Sustainable Development of Rural Territories, the Citizenship Territories Program, the Territorial Development Plans, as well as field research on projects carried out in three rural territories and citizenship in the South of Brazil. From this analysis, it is possible to think of the strengthening of short circuits as the mechanism to promote rural territorial development. © 2019, Pontificia Universidad Javeriana. All rights reserved.</t>
+          <t>Over the past decade, agricultural investment has been presented as a catchall solution to a converging set of global crises, often with poor rural communities as the proclaimed beneficiaries. Yet the promises of such investment, such as poverty alleviation and improved food access, are routinely at odds with realities on the ground. This article offers frameworks for analysis of agricultural investment that are grounded in the realities of small-scale food providers, drawing from two studies. The first study employs a right to food framework to identify the main channels through which food for consumption is procured by small-scale food providers and the factors impacting these channels. It draws on empirical data from within the Southern Agricultural Growth Corridor of Tanzania (SAGCOT), an investment model promised to lift rural communities out of poverty, which reflects a regional trend. Based on the shortcomings of the large-scale investments examined, the second study employs a food sovereignty framework to explore alternative forms of investment envisioned and/or already being put into practice by small-scale food providers in the SAGCOT area and elsewhere in Tanzania. While two different frameworks formed the basis of two different studies, both the studies and their frameworks are interrelated. The final section of this article makes the case for why both the right to food and food sovereignty are essential lenses for understanding agricultural investment vis-à-vis small-scale food providers and the ways in which they can serve as complementary tools for effective analysis. © 2018, © 2018 Southseries Inc., www.thirdworldquarterly.com.</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -836,15 +836,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Drafting a Law, Dissolving a Proposal: Food Sovereignty and the State in Ecuador</t>
+          <t>Framing the food poverty question: Policy choices and livelihood consequences in Indonesia</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Upon being sworn in as the 56th Ecuadorian President on 15 January 2007, Rafael Correa immediately convened, through a referendum, a National Constituent Assembly to draw up a new constitution. One of the concerns of the assembly was to translate into law a food-sovereignty proposal put forward by social movements. In the process of becoming law, the food-sovereignty proposal was much changed. How is it possible that the final version, the law, so far fell short of the food-sovereignty movement’s original proposal? Addressing this question implies a reflection on the role of the state. We argue that (a) instead of strengthening the role of peasants, their participation was reduced to a bureaucratic structure (a ‘council’) that lacked the capacity to define or implement policies, and (b) the issue of the social function of land and land-reform was removed. I therefore conclude that the social movements’ proposal for food sovereignty was stripped of its essentials. © 2018 SAGE Publications.</t>
+          <t>Since 2008, amidst fears of vulnerabilities related to climate change, price volatility and global food shortages, an increasingly conflicted policy field has emerged in the global south. Competing policy narratives provide for rival policy orientations with respect to food policy, land rights, the environment and justice. This paper considers the implications of different choices associated with these rival concepts in one case – that of Indonesian Kalimantan. The paper shows how predominant framings of ‘food sovereignty’, ‘food self-sufficiency’ and ‘food security’ support scalar strategies that empower particular actors and agendas. While narratives focused on national food sovereignty support large-scale food estates in ways that fit a particular politics of food, they overlook the specific livelihood challenges facing rural populations and the problems of food poverty in marginal landscapes. Localist narratives of ‘food sovereignty’ focus on enhancing smallholder access and control over productive resources and diversification in ways that are better suited to the geography of production, but they are yet to address the political anxieties presented by food questions at the national level. If policy choices are to deal with the underlying issues, then the alternative values, guiding assumptions and scalar strategies encompassed by rival narratives need to be appraised and reconciled with the specific livelihood challenges of rural people and the need to secure an inclusive and equitable society in a changing global environment. © 2017</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -872,15 +872,15 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Food security and food sovereignty in West Africa</t>
+          <t>The Developmental State and Food Sovereignty in Tanzania</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>The paper analyzes the evolution of food security in West Africa during the last 25 years. The Millennium Development Goal One aims at halving the proportion of people who suffer from hunger by 2015. Although Sub-Saharan Africa remains far from reaching the hunger target, West Africa presents a better situation, with eight countries that will meet the target. The paper focuses on international food trade, analyzing the recent growth of food imports in West Africa and the impact of this growth on food security. The last part of the paper is focused on the case of Benin: the country achieved an important reduction in undernourishment since 1990. The analysis aims to highlight the role of short food supply chains in rural development and therefore in food security strategies. The department of Atacora, in northern Benin, is used as a case study to show the recent evolution of local food networks in a region traditionally characterized by an export-oriented agriculture. In conclusion the paper highlights the link between food security, international trade, and local food networks, showing the potential of the ‘food sovereignty’ paradigm in understanding the geographies of food in West Africa. © 2016 The African Specialty Group of the American Association of Geographers.</t>
+          <t>Tanzania has been experiencing different periods of food shortages mainly because of insufficient food production. While the country has an undisputable potential for food production, the state and its development partners, such as the World Bank, believe that the unsustainable peasant food production is the main cause of the food crisis. As a panacea to the food crisis, a call for de-peasantization in favour of commercial large-scale farming, is advocated. Inspired by the work of Sam Moyo, this article argues that achieving food self-sufficiency should begin with improving peasant agriculture instead of dispossessing peasants of their land. The principles of food sovereignty must be adopted and the orientation of the state must be developmental. The state must play an activist role in investing heavily in agricultural-related projects. © 2017 SAGE Publications.</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -908,15 +908,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Greenhouse Agriculture in the Icelandic Food System</t>
+          <t>Value chain governance and governmentality of horticultural exporters by developing economies: A perspective of Kenya's fresh fruits and vegetable export sector</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Greenhouses are a frequent feature on the Icelandic rural landscape and an integral part of Iceland's food system. Iceland's reserves of geothermal energy present an opportunity to extend an otherwise short growing season. This promotes sustainability, increases food security, and benefits consumers. This article examines the relative strengths of Iceland's greenhouse sector - using a combination of statistics, observations, and interviews to understand the resource demands of greenhouse agriculture, how well greenhouses can allay some food insecurity and provide local foods. It ends with an examination of how the reduction of subsidies used to keep greenhouse agriculture going, has had an effect and forces the question of whether losing much of Iceland's agricultural sector and locally sourced food is worth the social and political costs. © 2019 Gina M. Butrico, David H. Kaplan, published by Sciendo 2019.</t>
+          <t>The domain of governance has largely been extolled by Nations, States or governmental and intergovernmental actors especially in upholding Nations' sovereignty and values. While this still holds, governance complexity has been reinforced by establishment of global value chains such as in food and agriculture commodities increasingly being influenced and controlled by non-state actors in different parts of the world by both corporate and retail actors through private governance mechanisms. These mechanisms often fall short of universal standards and the resultant effect is ramified through proliferation of standards that result to state of governance that is constantly being redefined as 'codes of colours'. This paper thus seeks for an alternate dimension based on Foucault's governmentality theory. The quest for this overarching theory is based on its mediatory role that regulates the excesses of private interests in regulations while not prioritizing any state's sovereignty but views governance inclusively to both the State and non-state actors; this view promotes the broader understating of global value chains in the global economy of the 21st century. The paper's methodology is based on literature review pertinent to governance theory, value chain governance, governmentality as its key variables in light of the agrifood sector. It applies the value chain discourse and governmentatity in light of the Kenya's Horticultural export and strategic positioning to the EU market. This paper's novelty in light of the discourse and building on the body of knowledge and for the plausible ways and means to re-articulate value chain governance in the global economy while creating a viable alternative between the States, and Non-State actors for the benefit of both the upstream agents and downstream customers.</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -933,150 +933,6 @@
         </is>
       </c>
       <c r="H14" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Analysing agricultural investment from the realities of small-scale food providers: grounding the debates</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Over the past decade, agricultural investment has been presented as a catchall solution to a converging set of global crises, often with poor rural communities as the proclaimed beneficiaries. Yet the promises of such investment, such as poverty alleviation and improved food access, are routinely at odds with realities on the ground. This article offers frameworks for analysis of agricultural investment that are grounded in the realities of small-scale food providers, drawing from two studies. The first study employs a right to food framework to identify the main channels through which food for consumption is procured by small-scale food providers and the factors impacting these channels. It draws on empirical data from within the Southern Agricultural Growth Corridor of Tanzania (SAGCOT), an investment model promised to lift rural communities out of poverty, which reflects a regional trend. Based on the shortcomings of the large-scale investments examined, the second study employs a food sovereignty framework to explore alternative forms of investment envisioned and/or already being put into practice by small-scale food providers in the SAGCOT area and elsewhere in Tanzania. While two different frameworks formed the basis of two different studies, both the studies and their frameworks are interrelated. The final section of this article makes the case for why both the right to food and food sovereignty are essential lenses for understanding agricultural investment vis-à-vis small-scale food providers and the ways in which they can serve as complementary tools for effective analysis. © 2018, © 2018 Southseries Inc., www.thirdworldquarterly.com.</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Framing the food poverty question: Policy choices and livelihood consequences in Indonesia</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Since 2008, amidst fears of vulnerabilities related to climate change, price volatility and global food shortages, an increasingly conflicted policy field has emerged in the global south. Competing policy narratives provide for rival policy orientations with respect to food policy, land rights, the environment and justice. This paper considers the implications of different choices associated with these rival concepts in one case – that of Indonesian Kalimantan. The paper shows how predominant framings of ‘food sovereignty’, ‘food self-sufficiency’ and ‘food security’ support scalar strategies that empower particular actors and agendas. While narratives focused on national food sovereignty support large-scale food estates in ways that fit a particular politics of food, they overlook the specific livelihood challenges facing rural populations and the problems of food poverty in marginal landscapes. Localist narratives of ‘food sovereignty’ focus on enhancing smallholder access and control over productive resources and diversification in ways that are better suited to the geography of production, but they are yet to address the political anxieties presented by food questions at the national level. If policy choices are to deal with the underlying issues, then the alternative values, guiding assumptions and scalar strategies encompassed by rival narratives need to be appraised and reconciled with the specific livelihood challenges of rural people and the need to secure an inclusive and equitable society in a changing global environment. © 2017</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>The Developmental State and Food Sovereignty in Tanzania</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>2016</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Tanzania has been experiencing different periods of food shortages mainly because of insufficient food production. While the country has an undisputable potential for food production, the state and its development partners, such as the World Bank, believe that the unsustainable peasant food production is the main cause of the food crisis. As a panacea to the food crisis, a call for de-peasantization in favour of commercial large-scale farming, is advocated. Inspired by the work of Sam Moyo, this article argues that achieving food self-sufficiency should begin with improving peasant agriculture instead of dispossessing peasants of their land. The principles of food sovereignty must be adopted and the orientation of the state must be developmental. The state must play an activist role in investing heavily in agricultural-related projects. © 2017 SAGE Publications.</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Value chain governance and governmentality of horticultural exporters by developing economies: A perspective of Kenya's fresh fruits and vegetable export sector</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>2016</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>The domain of governance has largely been extolled by Nations, States or governmental and intergovernmental actors especially in upholding Nations' sovereignty and values. While this still holds, governance complexity has been reinforced by establishment of global value chains such as in food and agriculture commodities increasingly being influenced and controlled by non-state actors in different parts of the world by both corporate and retail actors through private governance mechanisms. These mechanisms often fall short of universal standards and the resultant effect is ramified through proliferation of standards that result to state of governance that is constantly being redefined as 'codes of colours'. This paper thus seeks for an alternate dimension based on Foucault's governmentality theory. The quest for this overarching theory is based on its mediatory role that regulates the excesses of private interests in regulations while not prioritizing any state's sovereignty but views governance inclusively to both the State and non-state actors; this view promotes the broader understating of global value chains in the global economy of the 21st century. The paper's methodology is based on literature review pertinent to governance theory, value chain governance, governmentality as its key variables in light of the agrifood sector. It applies the value chain discourse and governmentatity in light of the Kenya's Horticultural export and strategic positioning to the EU market. This paper's novelty in light of the discourse and building on the body of knowledge and for the plausible ways and means to re-articulate value chain governance in the global economy while creating a viable alternative between the States, and Non-State actors for the benefit of both the upstream agents and downstream customers.</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
         <is>
           <t>_</t>
         </is>
